--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115423.6345608143</v>
+        <v>112942.7147353546</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>79.2886248746828</v>
       </c>
       <c r="C11" t="n">
         <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.9894815021172</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>108.752321159186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>43.77456074052122</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>117.9144561303394</v>
+        <v>24.67880215892976</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>140.3266745115014</v>
@@ -1771,19 +1771,19 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>2.836578806688976</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73129916648768</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1831,7 +1831,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>3.974324134330902</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>195.6954497347409</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>133.9254590121752</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359924</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>251.132125656052</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>270.8187860258894</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878727</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654128</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9383736358141</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,16 +2530,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130712</v>
       </c>
       <c r="W25" t="n">
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007077</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>89.9432660592209</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621572</v>
+        <v>98.0298005086669</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429027</v>
@@ -3509,7 +3509,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
         <v>309.1913255136066</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.503041560071</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>124.3541982182255</v>
       </c>
       <c r="C40" t="n">
-        <v>69.562100870523</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010752</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846433</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092339</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060841</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333706</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
         <v>188.527117977508</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429027</v>
@@ -3746,7 +3746,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136066</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.503041560071</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.562100870523</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846433</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482641</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092339</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621595</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.20693826439278</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333706</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419009</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429027</v>
@@ -3983,7 +3983,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441547</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136066</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.503041560071</v>
+        <v>11.50304156007026</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115153</v>
@@ -4034,16 +4034,16 @@
         <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383246</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.562100870523</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010752</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>99.70874824091418</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482641</v>
+        <v>89.94326605921933</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092339</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333706</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084862</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609323</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1383.148747430735</v>
+        <v>1823.749336508872</v>
       </c>
       <c r="C11" t="n">
-        <v>1041.378297750047</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="D11" t="n">
-        <v>710.3046664030205</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>351.7084810645001</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645001</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810644998</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299098</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.58875505237</v>
@@ -5069,22 +5069,22 @@
         <v>3242.507220395991</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039936</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.85071995609</v>
+        <v>2938.636400312144</v>
       </c>
       <c r="W11" t="n">
-        <v>2434.274131945699</v>
+        <v>2613.059812301753</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.000440944343</v>
+        <v>2266.786121300397</v>
       </c>
       <c r="Y11" t="n">
-        <v>1742.556520235133</v>
+        <v>1903.838856584309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228011</v>
@@ -5124,10 +5124,10 @@
         <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609372</v>
+        <v>568.6704577109576</v>
       </c>
       <c r="C13" t="n">
-        <v>418.3126375609372</v>
+        <v>568.6704577109576</v>
       </c>
       <c r="D13" t="n">
-        <v>295.3880654083251</v>
+        <v>445.7458855583456</v>
       </c>
       <c r="E13" t="n">
-        <v>185.537235954602</v>
+        <v>445.7458855583456</v>
       </c>
       <c r="F13" t="n">
-        <v>185.537235954602</v>
+        <v>326.0480053201589</v>
       </c>
       <c r="G13" t="n">
         <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5227,22 +5227,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1869.153174141607</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1607.242374526974</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.39213343079</v>
+        <v>1379.749953580811</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535532</v>
+        <v>1117.524850803574</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152595</v>
+        <v>916.7273671652802</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314532</v>
+        <v>723.1268552814737</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1502.254258673503</v>
+        <v>1464.883581967807</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.483808992815</v>
+        <v>1123.113132287119</v>
       </c>
       <c r="D14" t="n">
-        <v>829.4101776457878</v>
+        <v>1123.113132287119</v>
       </c>
       <c r="E14" t="n">
-        <v>470.8139923072672</v>
+        <v>764.516946948598</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7084810645001</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="H14" t="n">
-        <v>81.316947932991</v>
+        <v>81.31694793299118</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477901</v>
+        <v>2187.238619488293</v>
       </c>
       <c r="Y14" t="n">
-        <v>1861.662031477901</v>
+        <v>1824.291354772205</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237415</v>
+        <v>572.7690351314517</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555583</v>
+        <v>431.0249194632684</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029462</v>
+        <v>308.1003473106563</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802768</v>
+        <v>308.1003473106563</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420901</v>
+        <v>188.4024670724696</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>188.4024670724696</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>69.37734755005108</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1976.008292145084</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1714.097492530451</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1712.348705493594</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.123602716357</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.326119078064</v>
+        <v>766.3695470152581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.725607194257</v>
+        <v>572.7690351314517</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>940.9592424104335</v>
+        <v>940.9592424104339</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8126900199863</v>
+        <v>940.9592424104339</v>
       </c>
       <c r="F17" t="n">
-        <v>293.4684854381757</v>
+        <v>604.6150378286234</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>264.1842878814168</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
         <v>1830.862197398327</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872283</v>
+        <v>632.1517731235549</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671184</v>
+        <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625797</v>
+        <v>462.3823511989062</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>389.11095782431</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545404</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096709</v>
+        <v>739.1585377459976</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1544.173786276205</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1249.85296954359</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>966.2289711446366</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446359</v>
+        <v>966.2289711446366</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628253</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5759,43 +5759,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2469.642028487949</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2170.817970434666</v>
+        <v>2171.629557900545</v>
       </c>
       <c r="Y20" t="n">
-        <v>1855.320338666651</v>
+        <v>1856.13192613253</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604111</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817312</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459982</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018609</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1214.516121740116</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1748.048026412041</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2294.826843470823</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329807</v>
+        <v>2797.79931435016</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384076</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893064</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932665</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138544</v>
+        <v>575.9874173775278</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937446</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892059</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634003</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259242</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.1450609357038</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999706</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285457</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164794</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
@@ -6388,19 +6388,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6455,55 +6455,55 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557144</v>
+        <v>437.4316968760677</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455606</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1261.907203722596</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>2240.457506552424</v>
+        <v>2076.721146931701</v>
       </c>
       <c r="N29" t="n">
-        <v>2787.236323611206</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3979.725003735986</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803186</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902634</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457088</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
         <v>2422.046785351247</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
         <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698006</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6917,64 +6917,64 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464984</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307344</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389148</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848515</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463592</v>
+        <v>332.0236909300429</v>
       </c>
       <c r="E37" t="n">
-        <v>372.6124891639661</v>
+        <v>282.7820319214931</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657631</v>
+        <v>234.5635189974261</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>165.5321169459884</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891715</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649977</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953111</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7248,7 +7248,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228008</v>
@@ -7257,19 +7257,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650702</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110066</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725142</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639643</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>225.722541666054</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146162</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7363,19 +7363,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
         <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388401</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953099</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
         <v>1181.256586070898</v>
@@ -7397,10 +7397,10 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7415,16 +7415,16 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.9308303909364</v>
+        <v>599.6022649647796</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368728</v>
+        <v>529.337516610716</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245371</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159872</v>
+        <v>428.6506527636737</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919201</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404824</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7591,13 +7591,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1884.661277114359</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.646827515028</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1569.880212084554</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
         <v>1280.777345210198</v>
@@ -7606,13 +7606,13 @@
         <v>1124.764291578154</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150371</v>
+        <v>934.0185561150367</v>
       </c>
       <c r="X43" t="n">
-        <v>804.700439790863</v>
+        <v>804.7004397908627</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211762</v>
+        <v>682.5792952211759</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103803</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070896</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.07033796065</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.4050786964413</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C46" t="n">
-        <v>482.1403303423776</v>
+        <v>374.6279184371635</v>
       </c>
       <c r="D46" t="n">
-        <v>430.6951255038852</v>
+        <v>323.1827135986712</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898305</v>
+        <v>273.9410545901214</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657634</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515703</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.238539883659</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205419</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>856.1746880963678</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y46" t="n">
-        <v>635.3821089528377</v>
+        <v>725.2125661953102</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430624</v>
+        <v>157.2353108430633</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433728997</v>
+        <v>184.4039433729011</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389591</v>
+        <v>191.4948909389608</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333052</v>
+        <v>181.0856325333072</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830226</v>
+        <v>179.3553748830246</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383976</v>
+        <v>182.8301554383995</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586573</v>
+        <v>190.8908035586589</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266115</v>
+        <v>192.0103836266127</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.656200187597</v>
+        <v>112.6562001875975</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372526</v>
+        <v>113.6031223372535</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672264</v>
+        <v>105.9629718672277</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253581</v>
+        <v>104.1013981253597</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677538</v>
+        <v>92.30246558677692</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359725</v>
+        <v>106.8829608359739</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798315</v>
+        <v>105.3113487798327</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615452</v>
+        <v>120.8212784615459</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564652</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085222</v>
+        <v>119.1996074085229</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140772</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530919</v>
+        <v>120.6694600530926</v>
       </c>
       <c r="P10" t="n">
-        <v>122.50808566627</v>
+        <v>122.5080856662706</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>61.78301484554635</v>
+        <v>170.7178102063609</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>105.738561194468</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>274.8351763665432</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1187564935623</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>18.79169145623156</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0017854473911</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.882938249764265e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719371</v>
+        <v>15.02219619719372</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.5250702016714</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.32831056680992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>10.76149490025675</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>148.8542419485215</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>262.0414430242456</v>
+        <v>355.2770969956553</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.59569501602269</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>223.4861975702139</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>333.0521183134035</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>25.01703144686059</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>24.21355985564197</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>25.01703144686059</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.767919558114954e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1129777.950413845</v>
+        <v>1129777.950413846</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941752.4364890775</v>
+        <v>941752.4364890778</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941752.4364890774</v>
+        <v>941752.4364890775</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1024615.732424569</v>
+        <v>1024615.732424568</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389156.2608905932</v>
+        <v>389156.2608905931</v>
       </c>
       <c r="C2" t="n">
-        <v>389156.2608905933</v>
+        <v>389156.260890593</v>
       </c>
       <c r="D2" t="n">
-        <v>389166.8681578247</v>
+        <v>389166.8681578249</v>
       </c>
       <c r="E2" t="n">
+        <v>346531.5004298631</v>
+      </c>
+      <c r="F2" t="n">
         <v>346531.5004298632</v>
       </c>
-      <c r="F2" t="n">
-        <v>346531.500429863</v>
-      </c>
       <c r="G2" t="n">
-        <v>377402.1400921051</v>
+        <v>377402.140092105</v>
       </c>
       <c r="H2" t="n">
-        <v>377402.1400921046</v>
+        <v>377402.1400921044</v>
       </c>
       <c r="I2" t="n">
         <v>389994.8406855345</v>
@@ -26338,22 +26338,22 @@
         <v>389994.8406855348</v>
       </c>
       <c r="K2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.840685535</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="N2" t="n">
+        <v>389994.8406855345</v>
+      </c>
+      <c r="O2" t="n">
         <v>389994.8406855346</v>
       </c>
-      <c r="O2" t="n">
-        <v>389994.8406855348</v>
-      </c>
       <c r="P2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552463</v>
+        <v>59764.55367552226</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.97216363</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487425</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475032</v>
+        <v>426120.683347504</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863746</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863746</v>
+        <v>39414.21797863743</v>
       </c>
       <c r="G4" t="n">
         <v>76442.37834007965</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007968</v>
+        <v>76442.37834007965</v>
       </c>
       <c r="I4" t="n">
         <v>89331.33560602844</v>
@@ -26442,22 +26442,22 @@
         <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936346</v>
+        <v>86909.55729936328</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="N4" t="n">
+        <v>91573.95495316936</v>
+      </c>
+      <c r="O4" t="n">
         <v>91573.95495316938</v>
       </c>
-      <c r="O4" t="n">
-        <v>91573.95495316936</v>
-      </c>
       <c r="P4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316938</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186641</v>
+        <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482646</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91495.95938179965</v>
+        <v>-91500.37295966787</v>
       </c>
       <c r="C6" t="n">
-        <v>-91495.95938179959</v>
+        <v>-91500.37295966799</v>
       </c>
       <c r="D6" t="n">
-        <v>-131867.2742970695</v>
+        <v>-131871.6320472136</v>
       </c>
       <c r="E6" t="n">
-        <v>-858691.1800772313</v>
+        <v>-858919.9344996315</v>
       </c>
       <c r="F6" t="n">
-        <v>230547.7920863996</v>
+        <v>230319.0376640011</v>
       </c>
       <c r="G6" t="n">
-        <v>182861.0093319363</v>
+        <v>182794.7319603919</v>
       </c>
       <c r="H6" t="n">
-        <v>220441.1186268101</v>
+        <v>220374.8412552655</v>
       </c>
       <c r="I6" t="n">
         <v>192105.5089478303</v>
@@ -26546,19 +26546,19 @@
         <v>188297.9086895685</v>
       </c>
       <c r="K6" t="n">
-        <v>213707.3417113651</v>
+        <v>213707.3417113652</v>
       </c>
       <c r="L6" t="n">
-        <v>176127.2324164913</v>
+        <v>176127.2324164915</v>
       </c>
       <c r="M6" t="n">
-        <v>13734.18843339065</v>
+        <v>13734.18843339091</v>
       </c>
       <c r="N6" t="n">
-        <v>215902.2884261155</v>
+        <v>215902.2884261152</v>
       </c>
       <c r="O6" t="n">
-        <v>215902.2884261156</v>
+        <v>215902.2884261154</v>
       </c>
       <c r="P6" t="n">
         <v>215902.2884261154</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790857</v>
+        <v>69.78465283790581</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951253</v>
+        <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790857</v>
+        <v>69.78465283790581</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.99204775539</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.661204575023626e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104724</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780169</v>
+        <v>132.2465643780176</v>
       </c>
       <c r="S8" t="n">
-        <v>202.627234303657</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448431</v>
+        <v>221.8677799448432</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256561</v>
+        <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.2286184667209</v>
+        <v>84.22861846672112</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987489</v>
+        <v>90.83829126987526</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192289</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241796</v>
+        <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519056</v>
+        <v>84.46220888519092</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050989882</v>
+        <v>7.649035050990459</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317019</v>
+        <v>75.62456067317061</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437876</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207383</v>
+        <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>11.49558901075517</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E25" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075685</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371034</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810506</v>
+        <v>46.72521440565389</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>55.47778196371181</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371237</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,22 +30429,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.72521440565455</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>55.47778196371198</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>46.725214405655</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810484</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,25 +30900,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810484</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810484</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413407</v>
+        <v>0.2805413179413297</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366757</v>
+        <v>2.873093772366643</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993355</v>
+        <v>10.81556915993312</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362389</v>
+        <v>23.81059368362295</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208085</v>
+        <v>35.68590767207944</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102817</v>
+        <v>44.27152403102642</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396749</v>
+        <v>49.26060069396554</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356833</v>
+        <v>50.05768871356635</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328912</v>
+        <v>47.26805598328725</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661226</v>
+        <v>40.34219219661067</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783798</v>
+        <v>30.29530624783679</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313276</v>
+        <v>17.62255356313207</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588309</v>
+        <v>6.392835282588057</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928822</v>
+        <v>1.228069619288171</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530726</v>
+        <v>0.02244330543530637</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796524</v>
+        <v>0.1501028381796465</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840327</v>
+        <v>1.44967741084027</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694173</v>
+        <v>5.168014384693969</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790697</v>
+        <v>14.18142647906915</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710641</v>
+        <v>24.23831663710546</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264777</v>
+        <v>32.59140791264649</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579666017</v>
+        <v>38.03263579665866</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655793</v>
+        <v>39.03924649655639</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847194</v>
+        <v>35.71328360847053</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449871</v>
+        <v>28.66305863449758</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447633</v>
+        <v>19.16049562447558</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768246</v>
+        <v>9.319542882767879</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608892</v>
+        <v>2.788094384608782</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890373</v>
+        <v>0.6050197731890133</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345556</v>
+        <v>0.009875186722345166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486876</v>
+        <v>0.1258411772486826</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811059</v>
+        <v>1.118842466811015</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078715</v>
+        <v>3.784387403078565</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148221</v>
+        <v>8.896971231481858</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489297</v>
+        <v>14.62045677489239</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477306</v>
+        <v>18.70915102477232</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390829</v>
+        <v>19.72617653908213</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115599</v>
+        <v>19.25713215115523</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875086</v>
+        <v>17.78707839875016</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287762</v>
+        <v>15.21991838287702</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852419</v>
+        <v>10.53748257852378</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381896</v>
+        <v>5.658276933381672</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233945</v>
+        <v>2.193068516233859</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062574</v>
+        <v>0.5376850300625527</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564784</v>
+        <v>0.006864064213564513</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002942</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35814,7 +35814,7 @@
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>460.5450010649182</v>
+        <v>569.4797964257327</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,13 +36604,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>658.0403966073795</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>673.597162585915</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120755</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>664.7088708858942</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152071</v>
+        <v>78.4048899984564</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.635950985964</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>795.0547863356102</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.590114392333</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
